--- a/app/static/AngularJS/Configurador/FormatoExcelDeUnidades.xlsx
+++ b/app/static/AngularJS/Configurador/FormatoExcelDeUnidades.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Produccion\ASE\ASEv2\app\static\AngularJS\Configurador\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Número Económico</t>
   </si>
@@ -67,6 +72,39 @@
   </si>
   <si>
     <t>16260516-0010</t>
+  </si>
+  <si>
+    <t>placas</t>
+  </si>
+  <si>
+    <t>GFE450</t>
+  </si>
+  <si>
+    <t>GFE451</t>
+  </si>
+  <si>
+    <t>GFE452</t>
+  </si>
+  <si>
+    <t>GFE453</t>
+  </si>
+  <si>
+    <t>GFE454</t>
+  </si>
+  <si>
+    <t>GFE455</t>
+  </si>
+  <si>
+    <t>GFE456</t>
+  </si>
+  <si>
+    <t>GFE457</t>
+  </si>
+  <si>
+    <t>GFE458</t>
+  </si>
+  <si>
+    <t>GFE459</t>
   </si>
 </sst>
 </file>
@@ -141,6 +179,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,7 +453,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -443,11 +484,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1633010407001</v>
+        <v>1163301040735</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -462,12 +505,15 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>1633010407002</v>
+        <v>1633010407032</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -482,7 +528,10 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,7 +551,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -522,7 +574,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,7 +597,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,7 +620,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -582,7 +643,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -602,7 +666,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -622,7 +689,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -642,7 +712,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/app/static/AngularJS/Configurador/FormatoExcelDeUnidades.xlsx
+++ b/app/static/AngularJS/Configurador/FormatoExcelDeUnidades.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Produccion\ASE\ASEv2\app\static\AngularJS\Configurador\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
   </bookViews>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Número Económico</t>
   </si>
@@ -47,71 +42,20 @@
     <t>16260516-0001</t>
   </si>
   <si>
-    <t>16260516-0002</t>
-  </si>
-  <si>
-    <t>16260516-0003</t>
-  </si>
-  <si>
-    <t>16260516-0004</t>
-  </si>
-  <si>
-    <t>16260516-0005</t>
-  </si>
-  <si>
-    <t>16260516-0006</t>
-  </si>
-  <si>
-    <t>16260516-0007</t>
-  </si>
-  <si>
-    <t>16260516-0008</t>
-  </si>
-  <si>
-    <t>16260516-0009</t>
-  </si>
-  <si>
-    <t>16260516-0010</t>
-  </si>
-  <si>
-    <t>placas</t>
-  </si>
-  <si>
     <t>GFE450</t>
   </si>
   <si>
-    <t>GFE451</t>
-  </si>
-  <si>
-    <t>GFE452</t>
-  </si>
-  <si>
-    <t>GFE453</t>
-  </si>
-  <si>
-    <t>GFE454</t>
-  </si>
-  <si>
-    <t>GFE455</t>
-  </si>
-  <si>
-    <t>GFE456</t>
-  </si>
-  <si>
-    <t>GFE457</t>
-  </si>
-  <si>
-    <t>GFE458</t>
-  </si>
-  <si>
-    <t>GFE459</t>
+    <t>Placas</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,13 +76,22 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,12 +117,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,7 +396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -465,7 +419,7 @@
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -484,12 +438,12 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1163301040735</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -508,219 +462,87 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1633010407032</v>
-      </c>
-      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1633010407003</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1633010407004</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>1633010407005</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1633010407006</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>1633010407007</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>1633010407008</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>1633010407009</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1633010407010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/static/AngularJS/Configurador/FormatoExcelDeUnidades.xlsx
+++ b/app/static/AngularJS/Configurador/FormatoExcelDeUnidades.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Número Económico</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>Ejemplo</t>
+  </si>
+  <si>
+    <t>Zona</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +93,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,13 +128,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -419,7 +431,7 @@
     <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,8 +453,11 @@
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1163301040735</v>
       </c>
@@ -464,11 +479,14 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -476,7 +494,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -484,7 +502,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -492,7 +510,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -500,15 +518,16 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -516,7 +535,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -524,7 +543,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -532,7 +551,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
